--- a/fanmili/models/test.xlsx
+++ b/fanmili/models/test.xlsx
@@ -303,7 +303,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="140">
   <si>
     <t>姓名</t>
   </si>
@@ -803,6 +803,9 @@
       <t>cai'wu</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18301882682</t>
   </si>
 </sst>
 </file>
@@ -1462,8 +1465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="C83" sqref="C83"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="B84" sqref="B84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2390,8 +2393,8 @@
       <c r="A84" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="B84" s="14">
-        <v>18117160216</v>
+      <c r="B84" s="14" t="s">
+        <v>139</v>
       </c>
       <c r="C84" s="20" t="s">
         <v>138</v>
